--- a/Data/Drug Dilution Tables/240719_DDT.xlsx
+++ b/Data/Drug Dilution Tables/240719_DDT.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="222" documentId="8_{E5B666E1-2E84-F644-A6CF-C787879DBDDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1B413BB-DE70-9841-B6B0-CB28164BE381}"/>
   <bookViews>
-    <workbookView xWindow="34700" yWindow="220" windowWidth="29400" windowHeight="16860" activeTab="2" xr2:uid="{1379DBA8-BB83-2F42-B17C-BC8606A812DC}"/>
+    <workbookView xWindow="29580" yWindow="-1980" windowWidth="29400" windowHeight="16860" activeTab="2" xr2:uid="{1379DBA8-BB83-2F42-B17C-BC8606A812DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -241,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -249,7 +249,6 @@
     <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1131,11 +1130,11 @@
         <f>C2/(E2)</f>
         <v>348666.66666666669</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2">
         <f xml:space="preserve"> ROUNDDOWN((D2/C2)*1000, 1)</f>
         <v>573.6</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2">
         <f>(E2)-(G2/1000)</f>
         <v>0.9264</v>
       </c>
@@ -1165,11 +1164,11 @@
         <f>C3/(E3)</f>
         <v>240666.66666666666</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3">
         <f t="shared" ref="G3:G7" si="0" xml:space="preserve"> ROUNDDOWN((D3/C3)*1000, 1)</f>
         <v>831</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3">
         <f t="shared" ref="H3:H4" si="1">(E3)-(G3/1000)</f>
         <v>0.66900000000000004</v>
       </c>
@@ -1199,11 +1198,11 @@
         <f t="shared" ref="F4" si="2">C4/(E4)</f>
         <v>324666.66666666669</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4">
         <f t="shared" si="0"/>
         <v>616</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4">
         <f t="shared" si="1"/>
         <v>0.88400000000000001</v>
       </c>
@@ -1233,11 +1232,11 @@
         <f>C5/(E5)</f>
         <v>853333.33333333337</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5">
         <f t="shared" si="0"/>
         <v>234.3</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5">
         <f>(E5)-(G5/1000)</f>
         <v>1.2657</v>
       </c>
@@ -1268,11 +1267,11 @@
         <f>C6/(E6)</f>
         <v>780000</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6">
         <f t="shared" si="0"/>
         <v>256.39999999999998</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6">
         <f t="shared" ref="H6:H7" si="3">(E6)-(G6/1000)</f>
         <v>1.2436</v>
       </c>
@@ -1302,11 +1301,11 @@
         <f t="shared" ref="F7" si="4">C7/(E7)</f>
         <v>628000</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7">
         <f t="shared" si="0"/>
         <v>318.39999999999998</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7">
         <f t="shared" si="3"/>
         <v>1.1816</v>
       </c>
